--- a/becpg-plm/becpg-plm-core/src/test/resources/beCPG/import/Import.xlsx
+++ b/becpg-plm/becpg-plm-core/src/test/resources/beCPG/import/Import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="211" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="91">
   <si>
     <t>PATH</t>
   </si>
@@ -32,202 +32,205 @@
     <t>COLUMNS</t>
   </si>
   <si>
+    <t>bcpg:charactName</t>
+  </si>
+  <si>
+    <t>bcpg:nutUnit</t>
+  </si>
+  <si>
+    <t>bcpg:nutType</t>
+  </si>
+  <si>
+    <t>bcpg:nutGroup</t>
+  </si>
+  <si>
+    <t>VALUES</t>
+  </si>
+  <si>
+    <t>Energie (kJoules)</t>
+  </si>
+  <si>
+    <t>kJ</t>
+  </si>
+  <si>
+    <t>Valeur énergétique</t>
+  </si>
+  <si>
+    <t>Groupe 1</t>
+  </si>
+  <si>
+    <t>Energie (kCalories)</t>
+  </si>
+  <si>
+    <t>kcal</t>
+  </si>
+  <si>
+    <t>Protéines</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Nutriment</t>
+  </si>
+  <si>
+    <t>Protéines brutes (N x 6.25)</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Glucides</t>
+  </si>
+  <si>
+    <t>Sucres</t>
+  </si>
+  <si>
+    <t>Groupe 2</t>
+  </si>
+  <si>
+    <t>Amidon</t>
+  </si>
+  <si>
+    <t>Polyols totaux</t>
+  </si>
+  <si>
+    <t>Fibres alimentaires</t>
+  </si>
+  <si>
+    <t>Lipides</t>
+  </si>
+  <si>
+    <t>AG saturés</t>
+  </si>
+  <si>
+    <t>AG monoinsaturés</t>
+  </si>
+  <si>
+    <t>AG polyinsaturés</t>
+  </si>
+  <si>
+    <t>Cholestérol</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>Alcool (éthanol)</t>
+  </si>
+  <si>
+    <t>Acides organiques</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Minéraux</t>
+  </si>
+  <si>
+    <t>Magnésium</t>
+  </si>
+  <si>
+    <t>Phosphore</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Manganèse</t>
+  </si>
+  <si>
+    <t>Fer total</t>
+  </si>
+  <si>
+    <t>Cuivre</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Sélénium</t>
+  </si>
+  <si>
+    <t>µg</t>
+  </si>
+  <si>
+    <t>Iode</t>
+  </si>
+  <si>
+    <t>Rétinol</t>
+  </si>
+  <si>
+    <t>Vitamine</t>
+  </si>
+  <si>
+    <t>Bêta-carotène</t>
+  </si>
+  <si>
+    <t>Vitamine D</t>
+  </si>
+  <si>
+    <t>Activité vitaminique E (en équivalents alpha-tocophérol)</t>
+  </si>
+  <si>
+    <t>Vitamine C</t>
+  </si>
+  <si>
+    <t>Vitamine B1 ou Thiamine</t>
+  </si>
+  <si>
+    <t>Vitamine B2 ou Riboflavine</t>
+  </si>
+  <si>
+    <t>Vitamine B3 ou PP ou Niacine</t>
+  </si>
+  <si>
+    <t>Vitamine B5 ou Acide pantothénique</t>
+  </si>
+  <si>
+    <t>Vitamine B6 ou Pyridoxine</t>
+  </si>
+  <si>
+    <t>Vitamine B9 ou Folates totaux</t>
+  </si>
+  <si>
+    <t>Vitamine B12 ou Cobalamines</t>
+  </si>
+  <si>
+    <t>Omega 3</t>
+  </si>
+  <si>
+    <t>Omega 6</t>
+  </si>
+  <si>
+    <t>Rapport Omega 6 - Omega 3</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>/System/Characts/bcpg:entityLists/Ings</t>
+  </si>
+  <si>
+    <t>bcpg:ing</t>
+  </si>
+  <si>
+    <t>bcpg:legalName</t>
+  </si>
+  <si>
+    <t>bcpg:legalName_fr</t>
+  </si>
+  <si>
+    <t>bcpg:legalName_en</t>
+  </si>
+  <si>
+    <t>bcpg:ingCEECode</t>
+  </si>
+  <si>
     <t>cm:name</t>
-  </si>
-  <si>
-    <t>bcpg:nutUnit</t>
-  </si>
-  <si>
-    <t>bcpg:nutType</t>
-  </si>
-  <si>
-    <t>bcpg:nutGroup</t>
-  </si>
-  <si>
-    <t>VALUES</t>
-  </si>
-  <si>
-    <t>Energie (kJoules)</t>
-  </si>
-  <si>
-    <t>kJ</t>
-  </si>
-  <si>
-    <t>Valeur énergétique</t>
-  </si>
-  <si>
-    <t>Groupe 1</t>
-  </si>
-  <si>
-    <t>Energie (kCalories)</t>
-  </si>
-  <si>
-    <t>kcal</t>
-  </si>
-  <si>
-    <t>Protéines</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>Nutriment</t>
-  </si>
-  <si>
-    <t>Protéines brutes (N x 6.25)</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>Glucides</t>
-  </si>
-  <si>
-    <t>Sucres</t>
-  </si>
-  <si>
-    <t>Groupe 2</t>
-  </si>
-  <si>
-    <t>Amidon</t>
-  </si>
-  <si>
-    <t>Polyols totaux</t>
-  </si>
-  <si>
-    <t>Fibres alimentaires</t>
-  </si>
-  <si>
-    <t>Lipides</t>
-  </si>
-  <si>
-    <t>AG saturés</t>
-  </si>
-  <si>
-    <t>AG monoinsaturés</t>
-  </si>
-  <si>
-    <t>AG polyinsaturés</t>
-  </si>
-  <si>
-    <t>Cholestérol</t>
-  </si>
-  <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>Alcool (éthanol)</t>
-  </si>
-  <si>
-    <t>Acides organiques</t>
-  </si>
-  <si>
-    <t>Sodium</t>
-  </si>
-  <si>
-    <t>Minéraux</t>
-  </si>
-  <si>
-    <t>Magnésium</t>
-  </si>
-  <si>
-    <t>Phosphore</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>Manganèse</t>
-  </si>
-  <si>
-    <t>Fer total</t>
-  </si>
-  <si>
-    <t>Cuivre</t>
-  </si>
-  <si>
-    <t>Zinc</t>
-  </si>
-  <si>
-    <t>Sélénium</t>
-  </si>
-  <si>
-    <t>µg</t>
-  </si>
-  <si>
-    <t>Iode</t>
-  </si>
-  <si>
-    <t>Rétinol</t>
-  </si>
-  <si>
-    <t>Vitamine</t>
-  </si>
-  <si>
-    <t>Bêta-carotène</t>
-  </si>
-  <si>
-    <t>Vitamine D</t>
-  </si>
-  <si>
-    <t>Activité vitaminique E (en équivalents alpha-tocophérol)</t>
-  </si>
-  <si>
-    <t>Vitamine C</t>
-  </si>
-  <si>
-    <t>Vitamine B1 ou Thiamine</t>
-  </si>
-  <si>
-    <t>Vitamine B2 ou Riboflavine</t>
-  </si>
-  <si>
-    <t>Vitamine B3 ou PP ou Niacine</t>
-  </si>
-  <si>
-    <t>Vitamine B5 ou Acide pantothénique</t>
-  </si>
-  <si>
-    <t>Vitamine B6 ou Pyridoxine</t>
-  </si>
-  <si>
-    <t>Vitamine B9 ou Folates totaux</t>
-  </si>
-  <si>
-    <t>Vitamine B12 ou Cobalamines</t>
-  </si>
-  <si>
-    <t>Omega 3</t>
-  </si>
-  <si>
-    <t>Omega 6</t>
-  </si>
-  <si>
-    <t>Rapport Omega 6 - Omega 3</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>/System/Characts/bcpg:entityLists/Ings</t>
-  </si>
-  <si>
-    <t>bcpg:ing</t>
-  </si>
-  <si>
-    <t>bcpg:legalName</t>
-  </si>
-  <si>
-    <t>bcpg:legalName_fr</t>
-  </si>
-  <si>
-    <t>bcpg:legalName_en</t>
-  </si>
-  <si>
-    <t>bcpg:ingCEECode</t>
   </si>
   <si>
     <t>Abricot</t>
@@ -299,6 +302,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -358,8 +362,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -380,19 +388,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="165.382653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.55102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1683673469388"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="165.382653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="148.571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.0408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.93877551020408"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -1163,7 +1172,7 @@
       <c r="A49" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -1178,22 +1187,28 @@
       <c r="F49" s="0" t="s">
         <v>70</v>
       </c>
+      <c r="G49" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,16 +1216,19 @@
         <v>9</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,7 +1251,7 @@
       <c r="A56" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="0" t="s">
@@ -1248,22 +1266,28 @@
       <c r="F56" s="0" t="s">
         <v>69</v>
       </c>
+      <c r="G56" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D57" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,16 +1295,19 @@
         <v>9</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D58" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,19 +1315,22 @@
         <v>9</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C59" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="E59" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/becpg-plm/becpg-plm-core/src/test/resources/beCPG/import/Import.xlsx
+++ b/becpg-plm/becpg-plm-core/src/test/resources/beCPG/import/Import.xlsx
@@ -5,289 +5,309 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="91">
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>/System/Characts/bcpg:entityLists/Nuts</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>bcpg:nut</t>
-  </si>
-  <si>
-    <t>COLUMNS</t>
-  </si>
-  <si>
-    <t>bcpg:charactName</t>
-  </si>
-  <si>
-    <t>bcpg:nutUnit</t>
-  </si>
-  <si>
-    <t>bcpg:nutType</t>
-  </si>
-  <si>
-    <t>bcpg:nutGroup</t>
-  </si>
-  <si>
-    <t>VALUES</t>
-  </si>
-  <si>
-    <t>Energie (kJoules)</t>
-  </si>
-  <si>
-    <t>kJ</t>
-  </si>
-  <si>
-    <t>Valeur énergétique</t>
-  </si>
-  <si>
-    <t>Groupe 1</t>
-  </si>
-  <si>
-    <t>Energie (kCalories)</t>
-  </si>
-  <si>
-    <t>kcal</t>
-  </si>
-  <si>
-    <t>Protéines</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>Nutriment</t>
-  </si>
-  <si>
-    <t>Protéines brutes (N x 6.25)</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>Glucides</t>
-  </si>
-  <si>
-    <t>Sucres</t>
-  </si>
-  <si>
-    <t>Groupe 2</t>
-  </si>
-  <si>
-    <t>Amidon</t>
-  </si>
-  <si>
-    <t>Polyols totaux</t>
-  </si>
-  <si>
-    <t>Fibres alimentaires</t>
-  </si>
-  <si>
-    <t>Lipides</t>
-  </si>
-  <si>
-    <t>AG saturés</t>
-  </si>
-  <si>
-    <t>AG monoinsaturés</t>
-  </si>
-  <si>
-    <t>AG polyinsaturés</t>
-  </si>
-  <si>
-    <t>Cholestérol</t>
-  </si>
-  <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>Alcool (éthanol)</t>
-  </si>
-  <si>
-    <t>Acides organiques</t>
-  </si>
-  <si>
-    <t>Sodium</t>
-  </si>
-  <si>
-    <t>Minéraux</t>
-  </si>
-  <si>
-    <t>Magnésium</t>
-  </si>
-  <si>
-    <t>Phosphore</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>Manganèse</t>
-  </si>
-  <si>
-    <t>Fer total</t>
-  </si>
-  <si>
-    <t>Cuivre</t>
-  </si>
-  <si>
-    <t>Zinc</t>
-  </si>
-  <si>
-    <t>Sélénium</t>
-  </si>
-  <si>
-    <t>µg</t>
-  </si>
-  <si>
-    <t>Iode</t>
-  </si>
-  <si>
-    <t>Rétinol</t>
-  </si>
-  <si>
-    <t>Vitamine</t>
-  </si>
-  <si>
-    <t>Bêta-carotène</t>
-  </si>
-  <si>
-    <t>Vitamine D</t>
-  </si>
-  <si>
-    <t>Activité vitaminique E (en équivalents alpha-tocophérol)</t>
-  </si>
-  <si>
-    <t>Vitamine C</t>
-  </si>
-  <si>
-    <t>Vitamine B1 ou Thiamine</t>
-  </si>
-  <si>
-    <t>Vitamine B2 ou Riboflavine</t>
-  </si>
-  <si>
-    <t>Vitamine B3 ou PP ou Niacine</t>
-  </si>
-  <si>
-    <t>Vitamine B5 ou Acide pantothénique</t>
-  </si>
-  <si>
-    <t>Vitamine B6 ou Pyridoxine</t>
-  </si>
-  <si>
-    <t>Vitamine B9 ou Folates totaux</t>
-  </si>
-  <si>
-    <t>Vitamine B12 ou Cobalamines</t>
-  </si>
-  <si>
-    <t>Omega 3</t>
-  </si>
-  <si>
-    <t>Omega 6</t>
-  </si>
-  <si>
-    <t>Rapport Omega 6 - Omega 3</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>/System/Characts/bcpg:entityLists/Ings</t>
-  </si>
-  <si>
-    <t>bcpg:ing</t>
-  </si>
-  <si>
-    <t>bcpg:legalName</t>
-  </si>
-  <si>
-    <t>bcpg:legalName_fr</t>
-  </si>
-  <si>
-    <t>bcpg:legalName_en</t>
-  </si>
-  <si>
-    <t>bcpg:ingCEECode</t>
-  </si>
-  <si>
-    <t>cm:name</t>
-  </si>
-  <si>
-    <t>Abricot</t>
-  </si>
-  <si>
-    <t>Abricot default</t>
-  </si>
-  <si>
-    <t>Abricot french</t>
-  </si>
-  <si>
-    <t>Abricot english</t>
-  </si>
-  <si>
-    <t>Acerola</t>
-  </si>
-  <si>
-    <t>Acerola default</t>
-  </si>
-  <si>
-    <t>Acerola french</t>
-  </si>
-  <si>
-    <t>Acerola english</t>
-  </si>
-  <si>
-    <t>Abricot1</t>
-  </si>
-  <si>
-    <t>Abricot1 default</t>
-  </si>
-  <si>
-    <t>Abricot1 french</t>
-  </si>
-  <si>
-    <t>Abricot1 english</t>
-  </si>
-  <si>
-    <t>Acerola1</t>
-  </si>
-  <si>
-    <t>Acerola1 default</t>
-  </si>
-  <si>
-    <t>Acerola1 french</t>
-  </si>
-  <si>
-    <t>Acerola1 english</t>
-  </si>
-  <si>
-    <t>E341(i) - orthophosphate monocalcique, régulateur de l'acidité, agent de traitement des farines, affermissant, agent de texture, agent levant, antiagglomérant, agent de rétention d'eau/d'humidité, stabilisant</t>
-  </si>
-  <si>
-    <t>E341(i)</t>
-  </si>
-  <si>
-    <t>E341 (i) - monocalcium orthophosphate, acidity regulator, flour treatment agent, firming agent, texturizing agent, raising agent, anticaking agent retention of water / moisture, stabilizing</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="96">
+  <si>
+    <t xml:space="preserve">PATH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/System/Characts/bcpg:entityLists/Nuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLUMNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:charactName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nutUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nutType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:nutGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energie (kJoules)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur énergétique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groupe 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energie (kCalories)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kcal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protéines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutriment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protéines brutes (N x 6.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sucres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groupe 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amidon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polyols totaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibres alimentaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG saturés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG monoinsaturés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG polyinsaturés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cholestérol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcool (éthanol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acides organiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minéraux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnésium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potassium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manganèse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fer total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuivre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélénium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rétinol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bêta-carotène</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamine D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité vitaminique E (en équivalents alpha-tocophérol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamine C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamine B1 ou Thiamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamine B2 ou Riboflavine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamine B3 ou PP ou Niacine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamine B5 ou Acide pantothénique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamine B6 ou Pyridoxine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamine B9 ou Folates totaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamine B12 ou Cobalamines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapport Omega 6 - Omega 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/System/Characts/bcpg:entityLists/Ings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:ing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:legalName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:legalName_fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:legalName_en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:legalName_en_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:ingCEECode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm:name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abricot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abricot default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abricot french</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abricot english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abricot english US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerola default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerola french</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerola english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerola english US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abricot1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abricot1 default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abricot1 french</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abricot1 english US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abricot1 english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerola1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerola1 default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerola1 french</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerola1 english US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerola1 english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E341(i) - orthophosphate monocalcique, régulateur de l'acidité, agent de traitement des farines, affermissant, agent de texture, agent levant, antiagglomérant, agent de rétention d'eau/d'humidité, stabilisant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E341(i)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E341 (i) - monocalcium orthophosphate, acidity regulator, flour treatment agent, firming agent, texturizing agent, raising agent, anticaking agent retention of water / moisture, stabilizing</t>
   </si>
 </sst>
 </file>
@@ -295,7 +315,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -388,21 +408,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F58" activeCellId="0" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.55102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.0408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.93877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.5918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,25 +1211,31 @@
       <c r="G49" s="0" t="s">
         <v>71</v>
       </c>
+      <c r="H49" s="0" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,19 +1243,22 @@
         <v>9</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D51" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>67</v>
@@ -1264,10 +1294,13 @@
         <v>68</v>
       </c>
       <c r="F56" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="0" t="s">
-        <v>71</v>
+      <c r="H56" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,19 +1308,22 @@
         <v>9</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F57" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,19 +1331,22 @@
         <v>9</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,22 +1354,25 @@
         <v>9</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
